--- a/train_tools/qna/train_data.xlsx
+++ b/train_tools/qna/train_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="568">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -1044,7 +1044,455 @@
     <t>벤처대학원교학팀위치알려줘</t>
   </si>
   <si>
-    <t>교목실 &amp; 대학교회 번호 안내입니다 :)
+    <t>01-대학교회 장소 안내입니다 :)
+1F : 기도실, 사무실
+2F : 채플실</t>
+  </si>
+  <si>
+    <t>02-대학본부 장소 안내입니다 :)
+B1 : 문서고
+1F : 구매팀(101호), 회계팀(102호), 사무팀(102호), 총무팀(102호), 종합행정팀(104호), 교무팀(106호), 학사팀(106호)
+2F : 총장실, 회의실, 비서팀(201호), 홍보팀(206호), 대학원교학팀(209호), 입학팀, 입학사정관실(211호)
+3F : 회의실, 대학혁신팀(301호) ,법무팀(303호), 기획팀(기획예산,전략기획)(301호)</t>
+  </si>
+  <si>
+    <t>03-학생회관 장소 안내입니다 :)
+1F : 동아리실
+2F : 동아리실, 소극장
+3F : 학생팀, 장학팀, 장애학생지원센터(305호), 동아리실, 학생회실
+4F : 동아리실, 대학언론사</t>
+  </si>
+  <si>
+    <t>04-학술지원동 장소 안내입니다 :)
+1F : 집기비품
+2F : 서고</t>
+  </si>
+  <si>
+    <t>05-가공학및발효실험동 장소 안내입니다 :)
+1F : 기자재실</t>
+  </si>
+  <si>
+    <t>06-소프트볼장 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>07-운동장 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>08-학군단 장소 안내입니다 :)
+1F : 생활관, 행정반, 체력단련장
+2F : 교관실, 단장실, 지휘근무실
+3F : 강의실, 생활지도실</t>
+  </si>
+  <si>
+    <t>09-자동차공학전공 실습장 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>10-테니스장 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>11-체육관 장소 안내입니다 :)
+1F : 실내체육장, 탁구장, 학과사무실
+2F : 학과사무실, 태권도장, 실습실
+3F : 교수연구실, 강의실, 합기도장</t>
+  </si>
+  <si>
+    <t>12-산업안전동 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>13-자연과학관 장소 안내입니다 :)
+B1 : 일반화학실험실, 일반물리실험실
+1F : 일반생물실험실, 매점, 강의실
+2F : 실험·실습실, 강의실, 교수연구실
+3F : 실험·실습실, 강의실, 교수연구실
+4F : 실험·실습실, 강의실, 교수연구실
+5F : 실험·실습실, 강의실, 교수연구실</t>
+  </si>
+  <si>
+    <t>14-학생창업보육센터 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>15-건축학부실험동 장소 안내입니다 :)
+1F : 재료실험실, 소형구조실험실
+2F : 건축설비실험실</t>
+  </si>
+  <si>
+    <t>16-골프전공실습장 장소 안내입니다 :)
+1F : 골프연습장, 강의실
+2F : 교수연구실, 학과사무실</t>
+  </si>
+  <si>
+    <t>17-교직원회관 장소 안내입니다 :)
+B : 골프문화전략연구소, 스윙분석실
+1F : 교직원식당, 사무실
+2F : 교직원식당
+3F : 카페</t>
+  </si>
+  <si>
+    <t>18-제2공학관 장소 안내입니다 :)
+B1 : 강의실, 실습실, 세미나실
+1F : 실험실, 교수연구실, 강당
+2F : 실습실, 학회실, 교수연구실
+3F : 교수연구실, 실험·실습실, 강의실
+4F : 교수연구실, 실험·실습실, 강의실
+5F : 교수연구실, 실험·실습실, 강의실</t>
+  </si>
+  <si>
+    <t>19-제1공학관 장소 안내입니다 :)
+B1 : 교수연구실, 실험·실습실
+1F : 교수연구실, 실험·실습실, 강의실
+2F : 교수연구실, 실험·실습실, 강의실, 공학교육혁신센터(247호)
+3F : 교수연구실, 실험·실습실, 강의실
+4F : 교수연구실, 실험·실습실, 강의실
+5F : 교수연구실, 실험·실습실, 강의실
+6F : 교수연구실, 실험·실습실, 강의실</t>
+  </si>
+  <si>
+    <t>20-보건과학관 장소 안내입니다 :)
+1F : 교수연구실, 실험·실습실, 교강사실
+2F : 실험·실습실, 강의실
+3F : 교수연구실, 실험·실습실
+4F : 실험·실습실, 강의실</t>
+  </si>
+  <si>
+    <t>21-조형과학관 장소 안내입니다 :)
+B1 : 실습실
+1F : 계단강의실, 실습실
+2F : 교수연구실, 학과사무실, 실습실
+3F : 교수연구실, 실습실
+4F : 교수연구실, 실습실
+5F : 실습실</t>
+  </si>
+  <si>
+    <t>22-강석규교육관 장소 안내입니다 :)
+B1 : 매점, 카페, 생활편의시설
+1F : 외래강사실, 상황실, (인재개발처, 취업팀, 대학일자리센터, 창업교육센터, 현장실습지원센터)(102호)
+2F : 박물관, 국제회의실, 강의실, 호서브랜드디자인센터(209호)
+3F : 교수연구실, 강의실
+4F : 교수연구실, 강의실, 호서브랜드미디어센터
+5F :  MOT대학원</t>
+  </si>
+  <si>
+    <t>23-예술관 장소 안내입니다 :)
+B1 : 강의실습실
+1F : 학과사무실, 실습실
+2F : 교수연구실, 실습실, 실기실
+3F : 교수연구실, 소극장, 강의실습실</t>
+  </si>
+  <si>
+    <t>24-산학협동1호관 장소 안내입니다 :)
+1F : 강의실, 실습실, 은행, 우체국
+2F : 실습실, 교수연구실
+3F : 교수연구실, 강의실
+4F : 교수연구실, 실습실, 실기실
+5F : 실습실
+Caritas봉사센터 : 별관 117호</t>
+  </si>
+  <si>
+    <t>25-산학협동2호관 장소 안내입니다 :)
+1F : 직장어린이집
+2F : 세미나실
+3F : 교수연구실</t>
+  </si>
+  <si>
+    <t>26-학생식당 장소 안내입니다 :)
+1F : 관리팀(검수실 포함), 시설팀
+2F : 학생식당(현재 푸드코트)
+3F : 행정사무실, 상담실, 스튜디오
+4F : 웰니스센터, LINC+사업단(401호)</t>
+  </si>
+  <si>
+    <t>27-안전성평가센터(GLP) 장소 안내입니다 :)
+1F : 실험·실습실
+2F : 실험·실습실, 사무실
+3F : 실험·실습실, 사무실</t>
+  </si>
+  <si>
+    <t>28-호서벤처벨리 장소 안내입니다 :)</t>
+  </si>
+  <si>
+    <t>29-후생관 장소 안내입니다 :)
+1F : 헬스장, 휴게실, 세탁실, 매점 (1층 현재 상황 정보 없음)
+2F : 식당
+3F : 세미나실, 전시실</t>
+  </si>
+  <si>
+    <t>30-생활관G동 장소 안내입니다 :)
+1F : 사생단실, 2인실
+2F : 2인실
+3F : 2인실
+4F : 2인실
+5F : 2인실</t>
+  </si>
+  <si>
+    <t>31-생활관F동 장소 안내입니다 :)
+1F : 사생단실, 2인실
+2F : 2인실
+3F : 2인실
+4F : 2인실
+5F : 2인실
+6F : 2인실</t>
+  </si>
+  <si>
+    <t>32-생활관E동 장소 안내입니다 :)
+1F : 사감실, 사생단실, 4인실
+2F : 4인실
+3F : 4인실
+4F : 4인실
+5F : 독서실</t>
+  </si>
+  <si>
+    <t>33-생활관D동 장소 안내입니다 :)
+1F : 사감실, 택배실, 4인실
+2F : 4인실
+3F : 4인실
+4F : 4인실
+5F : 독서실</t>
+  </si>
+  <si>
+    <t>34-생활관C동 장소 안내입니다 :)
+1F : 홀
+2F : 사감실, 방송실, 세탁실, 4인실
+3F : 4인실
+4F : 4인실
+5F : 6인실
+6F : 독서실</t>
+  </si>
+  <si>
+    <t>35-외국인교수 사택 장소 안내입니다 :)
+1F : 세탁실, 사택
+2F : 사택
+3F : 사택</t>
+  </si>
+  <si>
+    <t>36-생활관B동 장소 안내입니다 :)
+1F : 사감실, 방송실, 4인실
+2F : 4인실, 6인실
+3F : 4인실, 6인실
+4F : 4인실, 도서관</t>
+  </si>
+  <si>
+    <t>37-생활관A동 장소 안내입니다 :)
+1F : 사감실, 4인실
+2F : 4인실, 6인실
+3F : 4인실, 6인실
+4F : 4인실, 도서관</t>
+  </si>
+  <si>
+    <t>38-학생벤처창업관 장소 안내입니다 :)
+1F : 창업보육실
+2F : 동아리지원실, 학생창업보육실</t>
+  </si>
+  <si>
+    <t>39-벤처창업기업관 장소 안내입니다 :)
+1F : 창업보육실
+2F : 창업보육실, 회의실
+3F : 창업보육실</t>
+  </si>
+  <si>
+    <t>40-벤처창조융합관 장소 안내입니다 :)
+1F : 창업보육실
+2F : 창업보육실
+3F : 창업보육실, 회의실, 기자재실
+4F : 창업보육실, 창업준비실</t>
+  </si>
+  <si>
+    <t>41-벤처산학협력관 장소 안내입니다 :)
+B1 : 교육실, 실습실
+1F : 시제품제작지원실, 장비실
+2F : 국제회의실, 산학감사실(202-1호), 산학행정팀(204호), 산학사업팀(206호)
+3F : 기술이전센터, 강의실, 연구팀(301, 302호)
+4F : 연구소, 생명윤리위원회사무국(409호)
+5F : 가족기업
+6F : 가족기업
+7F : 창업지원단</t>
+  </si>
+  <si>
+    <t>42-교육문화관 장소 안내입니다 :)
+1F : 채플실, 무대
+2F : 채플실</t>
+  </si>
+  <si>
+    <t>43-학술정보관 장소 안내입니다 :)
+B1 : 카페, 베이커리(없어짐), 편의점
+1F : 소극장, 시네마룸, 미디어제작실
+2F : 24시간열람실, 통합서비스센터
+3F : 그룹스터디룸, 일반열람실
+4F : 캐럴, 메모리얼홀, 휴게실
+5F : 북카페, 학술정보개발실
+6F : 전시실, VIP접견실</t>
+  </si>
+  <si>
+    <t>44-행복기숙사 장소 안내입니다 :)
+홈페이지에 정보가 없어요 :(</t>
+  </si>
+  <si>
+    <t>애니메이션학과 장소 안내입니다 :)
+→ 애니메이션학과 사무실 : 조형과학관 212-1호</t>
+  </si>
+  <si>
+    <t>식품제약공학부 장소 안내입니다 :)
+→ 식품제약공학부 사무실 : 자연과학관 104-1호</t>
+  </si>
+  <si>
+    <t>화장품생명공학부 장소 안내입니다 :)
+→ 화장품생명공학부 사무실 : 자연과학관 104-1호</t>
+  </si>
+  <si>
+    <t>벤처대학원교학팀 위치 안내
+: 벤처대학원 202호 (서울시 서초구 남부순환로2497 호서대 벤처대학원)</t>
+  </si>
+  <si>
+    <t>:5000/images/1, 210.119.108.235:5000/images/in_대학교회</t>
+  </si>
+  <si>
+    <t>:5000/images/1</t>
+  </si>
+  <si>
+    <t>:5000/images/2, 210.119.108.235:5000/images/in_본관, 210.119.108.235:5000/images/in_본관2</t>
+  </si>
+  <si>
+    <t>:5000/images/2</t>
+  </si>
+  <si>
+    <t>:5000/images/3</t>
+  </si>
+  <si>
+    <t>:5000/images/4</t>
+  </si>
+  <si>
+    <t>:5000/images/5</t>
+  </si>
+  <si>
+    <t>:5000/images/6</t>
+  </si>
+  <si>
+    <t>:5000/images/7, 210.119.108.235:5000/images/in_운동장</t>
+  </si>
+  <si>
+    <t>:5000/images/8</t>
+  </si>
+  <si>
+    <t>:5000/images/9</t>
+  </si>
+  <si>
+    <t>:5000/images/10</t>
+  </si>
+  <si>
+    <t>:5000/images/11</t>
+  </si>
+  <si>
+    <t>:5000/images/12</t>
+  </si>
+  <si>
+    <t>:5000/images/13</t>
+  </si>
+  <si>
+    <t>:5000/images/14</t>
+  </si>
+  <si>
+    <t>:5000/images/15</t>
+  </si>
+  <si>
+    <t>:5000/images/16</t>
+  </si>
+  <si>
+    <t>:5000/images/17</t>
+  </si>
+  <si>
+    <t>:5000/images/18, 210.119.108.235:5000/images/in_제2공학관, 210.119.108.235:5000/images/in_제2공학관2</t>
+  </si>
+  <si>
+    <t>:5000/images/19, 210.119.108.235:5000/images/in_제1공학관, 210.119.108.235:5000/images/in_제1공학관2</t>
+  </si>
+  <si>
+    <t>:5000/images/19, 210.119.108.235:5000/images/in_공학교육혁신센터</t>
+  </si>
+  <si>
+    <t>:5000/images/20</t>
+  </si>
+  <si>
+    <t>:5000/images/21</t>
+  </si>
+  <si>
+    <t>:5000/images/22, 210.119.108.235:5000/images/in_강석규교육관</t>
+  </si>
+  <si>
+    <t>:5000/images/22</t>
+  </si>
+  <si>
+    <t>:5000/images/22, 210.119.108.235:5000/images/in_사진관</t>
+  </si>
+  <si>
+    <t>:5000/images/22, 210.119.108.235:5000/images/in_생활용품점</t>
+  </si>
+  <si>
+    <t>:5000/images/23</t>
+  </si>
+  <si>
+    <t>:5000/images/24</t>
+  </si>
+  <si>
+    <t>:5000/images/25</t>
+  </si>
+  <si>
+    <t>:5000/images/26</t>
+  </si>
+  <si>
+    <t>:5000/images/27</t>
+  </si>
+  <si>
+    <t>:5000/images/28</t>
+  </si>
+  <si>
+    <t>:5000/images/29</t>
+  </si>
+  <si>
+    <t>:5000/images/30</t>
+  </si>
+  <si>
+    <t>:5000/images/31</t>
+  </si>
+  <si>
+    <t>:5000/images/32</t>
+  </si>
+  <si>
+    <t>:5000/images/33</t>
+  </si>
+  <si>
+    <t>:5000/images/34</t>
+  </si>
+  <si>
+    <t>:5000/images/35</t>
+  </si>
+  <si>
+    <t>:5000/images/36</t>
+  </si>
+  <si>
+    <t>:5000/images/37</t>
+  </si>
+  <si>
+    <t>:5000/images/38</t>
+  </si>
+  <si>
+    <t>:5000/images/39</t>
+  </si>
+  <si>
+    <t>:5000/images/40</t>
+  </si>
+  <si>
+    <t>:5000/images/41</t>
+  </si>
+  <si>
+    <t>:5000/images/42</t>
+  </si>
+  <si>
+    <t>:5000/images/43, 210.119.108.235:5000/images/in_학술정보관, 210.119.108.235:5000/images/in_학술정보관2</t>
+  </si>
+  <si>
+    <t>:5000/images/44</t>
+  </si>
+  <si>
+    <t>☎️교목실 &amp; 대학교회 번호 안내입니다
 [교목실 번호]
 → 교목 : 041-540-5023
 → 채플 : 041-540-5021
@@ -1053,15 +1501,29 @@
 [대학교회 번호]
 → 실장 : 041-540-5026
 → 교목 : 041-540-5025</t>
-  </si>
-  <si>
-    <t>비서실 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎️교목실 &amp; 대학교회 번호 안내입니다
+[교목실 번호]
+→ 교목 : 041-540-5023
+→ 채플 : 041-540-5021
+→ 교직원예배 : 041-540-5022
+→ 신우회 : 041-540-5024
+[대학교회 번호]
+→ 실장 : 041-540-5026
+→ 교목 : 041-540-5025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎️비서실 번호 안내입니다
 → 비서실장 : 041-540-5006
 → 팀장 : 041-540-5007
 → 직원 : 041-540-5008</t>
-  </si>
-  <si>
-    <t>기획처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎️기획처 번호 안내입니다
 [기획예산팀]
 → 예산 : 041-540-5152
 → 특성화사업/학사구조개혁/정원 : 041-540-5153
@@ -1075,9 +1537,10 @@
 → 대학홍보/홈페이지 : 041-540-5157
 → 발전기금 : 041-540-5158
 → 대외협력관 : 041-540-9995</t>
-  </si>
-  <si>
-    <t>교무처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교무처 번호 안내입니다
 [교무팀]
 → 교원인사(전임) : 041-540-5042
 → 교원평가(교원/봉사) : 041-540-5044
@@ -1091,9 +1554,44 @@
 → 수업/수강/강사료/수업반응도 : 041-540-5055
 → 캡스톤디자인 : 041-540-5056
 → 학력조회/군e러닝/학사민원 : 041-540-5056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">학생처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교무처 번호 안내입니다
+[교무팀]
+→ 교원인사(전임) : 041-540-5042
+→ 교원평가(교원/봉사) : 041-540-5044
+→ 교원인사(비전임/강사/조교) : 041-540-5045
+→ 증명발급/민원(교원) : 041-540-5045
+→ 일반업무 : 041-540-5047
+[학사팀]
+→ 교육과정/인증 : 041-540-5051
+→ 성적/졸업/규정 : 041-540-5052
+→ 학적/재입학/통계/계절학기 : 041-540-5053
+→ 수업/수강/강사료/수업반응도 : 041-540-5055
+→ 캡스톤디자인 : 041-540-5056
+→ 학력조회/군e러닝/학사민원 : 041-540-5056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교무처 번호 안내입니다
+[교무팀]
+→ 교원인사(전임) : 041-540-5042
+→ 교원평가(교원/봉사) : 041-540-5044
+→ 교원인사(비전임/강사/조교) : 041-540-5045
+→ 증명발급/민원(교원) : 041-540-5045
+→ 일반업무 : 041-540-5047
+[학사팀]
+→ 교육과정/인증 : 041-540-5051
+→ 성적/졸업/규정 : 041-540-5052
+→ 학적/재입학/통계/계절학기 : 041-540-5053
+→ 수업/수강/강사료/수업반응도 : 041-540-5055
+→ 캡스톤디자인 : 041-540-5056
+→ 학력조회/군e러닝/학사민원 : 041-540-5056</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☎학생처 번호 안내입니다
 [학생팀]
 → 지도/상벌 : 041-540-5082
 → 민원/통학 : 041-540-5083
@@ -1103,14 +1601,29 @@
 → 교내장학/국가근로 : 041-540-5912
 → 장학/민원 : 041-540-5913
 </t>
-  </si>
-  <si>
-    <t>보건진료센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☎학생처 번호 안내입니다
+[학생팀]
+→ 지도/상벌 : 041-540-5082
+→ 민원/통학 : 041-540-5083
+→ 셔틀/교직원통학 : 041-540-5084
+[장학팀]
+→ 국가장학/학자금대츨 : 041-540-5911
+→ 교내장학/국가근로 : 041-540-5912
+→ 장학/민원 : 041-540-5913
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎보건진료센터 번호 안내입니다
 → 센터장 : 041-540-5280
 → 간호사 : 041-540-5281</t>
-  </si>
-  <si>
-    <t>입학처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎입학처 번호 안내입니다
 → 입시홍보/계약학과 : 041-540-5072
 → 입시홍보/전산 : 041-540-5073
 → 입시홍보 : 041-540-5075
@@ -1118,62 +1631,77 @@
 → 입학상담(호기/꿈길) : 041-540-5202
 → 입학상담(학생부종합) : 041-540-5203
 → 입학상담(진로체험) : 041-540-5204, 5205, 5206</t>
-  </si>
-  <si>
-    <t>호서교육기부센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎호서교육기부센터 번호 안내입니다
 → 센터장 : 041-540-5077</t>
-  </si>
-  <si>
-    <t>인재개발처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎인재개발처 번호 안내입니다
 → 취업통계 : 041-540-5061
 → 취업교육/외부사업 : 041-540-5062
 → 취업교육지원 : 041-540-5063
 → 민원/상담 : 041-540-5067</t>
-  </si>
-  <si>
-    <t>대학일자리센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학일자리센터 번호 안내입니다
 → 취업상담(공과/생명보건대학) : 041-540-5211/5212
 → 취업상담(AI융합/예체능대학) : 041-540-5245/5209</t>
-  </si>
-  <si>
-    <t>창업교육센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎창업교육센터 번호 안내입니다
 → 행정총괄 : 041-540-5063</t>
-  </si>
-  <si>
-    <t>현장실습지원센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎현장실습지원센터 번호 안내입니다
 → 행정총괄 : 041-540-5063</t>
-  </si>
-  <si>
-    <t>교육혁신처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎현장실습지원센터 번호 안내입니다
+→ 행정총괄 : 041-540-5063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교육혁신처 번호 안내입니다
 → 행정/운영지원 : 041-540-9882
 → 대학혁신지원사업지원 : 041-540-9792</t>
-  </si>
-  <si>
-    <t>교수학습센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교수학습센터 번호 안내입니다
 → CTL 기획(전임교수) : 041-540-9710
 → 교수법(특강/세미나) : 041-540-9886
 → 학습법(자기주도학습) : 041-540-9887
 → 학습법(튜터링) : 041-540-9883
 → 학습법(학습공동체) : 041-540-9881
 → 글쓰기(HOW클리닉) : 041-540-9893</t>
-  </si>
-  <si>
-    <t>카리타스상담센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎카리타스상담센터 번호 안내입니다
 → 상담/폭력예방교육 : 041-540-9621
 → 개인/집단상담 : 041-540-9620
 → 개인/집단상담 : 041-540-9622
 → 개인/비교과상담 : 041-540-9717</t>
-  </si>
-  <si>
-    <t>이러닝지원센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎이러닝지원센터 번호 안내입니다
 → CanDo/HOW클리닉 : 041-540-9962
 → H · MOOC/K · MOOC : 041-540-5648
 → 원격강좌매체제작 : 041-540-9885
 → 원격강좌매체제작 : 041-540-9667
 → 매체제작 스튜디오 : 041-540-9668</t>
-  </si>
-  <si>
-    <t>사무처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎사무처 번호 안내입니다
 [직원인사/교육]
 → 4대보험/계약직인사 : 041-540-5123
 → 민원 : 041-540-5124
@@ -1188,14 +1716,52 @@
 → 건축/토목 : 041-540-5142
 → 소방/전기/통신 : 041-540-5143
 → (소방/시설)안전/시설개보수 : 041-540-5144</t>
-  </si>
-  <si>
-    <t>연구안전관리센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎사무처 번호 안내입니다
+[직원인사/교육]
+→ 4대보험/계약직인사 : 041-540-5123
+→ 민원 : 041-540-5124
+[총무팀]
+→ 기계/환경/일반관리 : 041-540-5132
+→ 민원 : 041-540-5135
+→ 영선/유류난방 : 041-540-5136
+→ 자산관리/검수 : 041-540-5116
+→ 검수/냉난방 : 041-540-5118
+→ 자산/재물조사 : 041-540-9691
+[시설팀]
+→ 건축/토목 : 041-540-5142
+→ 소방/전기/통신 : 041-540-5143
+→ (소방/시설)안전/시설개보수 : 041-540-5144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎사무처 번호 안내입니다
+[직원인사/교육]
+→ 4대보험/계약직인사 : 041-540-5123
+→ 민원 : 041-540-5124
+[총무팀]
+→ 기계/환경/일반관리 : 041-540-5132
+→ 민원 : 041-540-5135
+→ 영선/유류난방 : 041-540-5136
+→ 자산관리/검수 : 041-540-5116
+→ 검수/냉난방 : 041-540-5118
+→ 자산/재물조사 : 041-540-9691
+[시설팀]
+→ 건축/토목 : 041-540-5142
+→ 소방/전기/통신 : 041-540-5143
+→ (소방/시설)안전/시설개보수 : 041-540-5144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎연구안전관리센터 번호 안내입니다
 → 안전기획 및 총괄 : 041-540-9691
 → 안전실무 및 관리 : 041-540-9692/9693</t>
-  </si>
-  <si>
-    <t>재무처 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎재무처 번호 안내입니다
 [회계팀]
 → 자금관리/급여 : 041-540-5102
 → 지출 : 041-540-5105
@@ -1204,31 +1770,56 @@
 → 일반구매/임대차계약 : 041-540-5111
 → 실험실습/국책사업구매 : 041-540-5112
 → 산학협력단/연구비구매 : 041-540-5117</t>
-  </si>
-  <si>
-    <t>대학 휴·복학 관련 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎재무처 번호 안내입니다
+[회계팀]
+→ 자금관리/급여 : 041-540-5102
+→ 지출 : 041-540-5105
+→ 대학원등록 : 041-540-5104
+[구매팀]
+→ 일반구매/임대차계약 : 041-540-5111
+→ 실험실습/국책사업구매 : 041-540-5112
+→ 산학협력단/연구비구매 : 041-540-5117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학 휴·복학 관련 번호 안내입니다
 → 생명보건대학, AI융합대학 휴복학 증명발급
 : 041-540-9515
 → 공과대학, 예체능대학 휴·복학
 : 041-540-9602</t>
-  </si>
-  <si>
-    <t>대학 휴·복학 관련 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학 휴·복학 관련 번호 안내입니다
 → 생명보건대학, AI융합대학 휴복학 증명발급
 : 041-540-9515
 → 공과대학, 예체능대학 휴복학
 : 041-540-9602</t>
-  </si>
-  <si>
-    <t>기초교양교육팀 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎기초교양교육팀 번호 안내입니다
 → 기초교양교육팀장 : 041-540-9913
 → 교직/평생교육사 : 041-540-9915
 → 일반교양 : 041-540-9916
 → 인성교양/기초교양 : 041-540-9917
 → 영어교육 : 041-540-9918</t>
-  </si>
-  <si>
-    <t>대학원 관련 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎기초교양교육팀 번호 안내입니다
+→ 기초교양교육팀장 : 041-540-9913
+→ 교직/평생교육사 : 041-540-9915
+→ 일반교양 : 041-540-9916
+→ 인성교양/기초교양 : 041-540-9917
+→ 영어교육 : 041-540-9918</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학원 관련 번호 안내입니다
 → 일반대학원장 : 041-540-5185
 → 스포츠과학대학원장 : 041-540-5186
 → 기술경영전문대학원장 : 041-540-5187
@@ -1237,9 +1828,22 @@
 → 졸업/수업/시험 : 041-540-5194
 → 입학/학적/정원 : 041-540-5195
 → 입학/학적/정원 : 041-540-5196</t>
-  </si>
-  <si>
-    <t>아산캠퍼스 중앙도서관 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학원 관련 번호 안내입니다
+→ 일반대학원장 : 041-540-5185
+→ 스포츠과학대학원장 : 041-540-5186
+→ 기술경영전문대학원장 : 041-540-5187
+→ 부원장 : 041-540-5191
+→ 교학팀장(등록/장학) : 041-540-5193
+→ 졸업/수업/시험 : 041-540-5194
+→ 입학/학적/정원 : 041-540-5195
+→ 입학/학적/정원 : 041-540-5196</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎아산캠퍼스 중앙도서관 번호 안내입니다
 → 관장 : 041-540-5160
 → 학술팀장 : 041-540-5161
 [학술정보개발실]
@@ -1260,9 +1864,34 @@
 → 갤러리 : 041-540-5951
 [멀티미디어센터]
 → 비도서 대출/반납, 소극장 : 041-540-9945/9946(야)</t>
-  </si>
-  <si>
-    <t>전산정보원 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎아산캠퍼스 중앙도서관 번호 안내입니다
+→ 관장 : 041-540-5160
+→ 학술팀장 : 041-540-5161
+[학술정보개발실]
+→ 수서(국외/전자책) : 041-540-5162
+→ 수서(구입/기증) : 041-540-5163
+→ 정리(분류/편목) : 041-540-5164
+→ 정리(분류/편목) : 041-540-5165
+[학술정보열람실]
+→ 대출/반납/시설/민원(2F) : 041-540-9942/9943(야)
+→ 과학기술/예술자료실(4F) : 041-540-5171
+→ 인문/사회과학자료실(5F) : 041-540-5169
+[학술정보서비스실]
+→ 학술DB : 041-540-5172
+→ 연간물/상호대차 : 041-540-5167
+[통합서비스센터]
+→ 전산/이용교육 : 041-540-5166
+→ 문화/홍보 : 041-540-9941
+→ 갤러리 : 041-540-5951
+[멀티미디어센터]
+→ 비도서 대출/반납, 소극장 : 041-540-9945/9946(야)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전산정보원 번호 안내입니다
 → 전산운영/정보보호팀장(그룹웨어/메일) : 041-540-5175
 → 학사시스템(부속기관) : 041-540-5176/5179
 → 학사시스텝(수강/졸업/수업/업적/포탈) : 041-540-5176
@@ -1273,21 +1902,52 @@
 → 정보보안/개인정보보호 : 041-540-5178
 → 헬프데스크(네트워크) : 041-540-5182
 → 헬프데스크(네트워크) : 041-540-5183</t>
-  </si>
-  <si>
-    <t>LMS 업무 관련 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전산정보원 번호 안내입니다
+→ 전산운영/정보보호팀장(그룹웨어/메일) : 041-540-5175
+→ 학사시스템(부속기관) : 041-540-5176/5179
+→ 학사시스텝(수강/졸업/수업/업적/포탈) : 041-540-5176
+→ 학사시스템(학적/성적/장학/등록/PUSH) : 041-540-5179
+→ 학사시스템/LMS업무 : 041-540-5181
+→ 행정시스템(인사/예산/회계) : 041-540-5180
+→ 네트워크/공용소프트웨어 : 041-540-5177
+→ 정보보안/개인정보보호 : 041-540-5178
+→ 헬프데스크(네트워크) : 041-540-5182
+→ 헬프데스크(네트워크) : 041-540-5183</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전산정보원 번호 안내입니다
+→ 전산운영/정보보호팀장(그룹웨어/메일) : 041-540-5175
+→ 학사시스템(부속기관) : 041-540-5176/5179
+→ 학사시스텝(수강/졸업/수업/업적/포탈) : 041-540-5176
+→ 학사시스템(학적/성적/장학/등록/PUSH) : 041-540-5179
+→ 학사시스템/LMS업무 : 041-540-5181
+→ 행정시스템(인사/예산/회계) : 041-540-5180
+→ 네트워크/공용소프트웨어 : 041-540-5177
+→ 정보보안/개인정보보호 : 041-540-5178
+→ 헬프데스크(네트워크) : 041-540-5182
+→ 헬프데스크(네트워크) : 041-540-5183</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎LMS 업무 관련 번호 안내입니다
 → 전산정보원 학사시스템/LMS업무 : 041-540-5181
 → LMS지원센터장 : 041-540-5984
 → LMS업무 : 041-540-5189</t>
-  </si>
-  <si>
-    <t>예비군 관련 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎예비군 관련 번호 안내입니다
 → 연대장 : 041-540-5330
 → 예비군/민방위 : 041-540-5065
 → FAX : 041-540-5066</t>
-  </si>
-  <si>
-    <t>국제협력원 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎국제협력원 번호 안내입니다
 → 국제교류(영미권,베트남) : 041-540-9522
 → 국제교류(중화권) : 041-540-9716
 → 모의토익, 호서토픽 : 041-540-9713
@@ -1296,19 +1956,52 @@
 → 중국교류입학상담 : 041-540-9712
 → 유학생민원(중국) : 041-540-9524
 → 유학생민원(베트남) : 041-540-9526</t>
-  </si>
-  <si>
-    <t>유학생상담센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎국제협력원 번호 안내입니다
+→ 국제교류(영미권,베트남) : 041-540-9522
+→ 국제교류(중화권) : 041-540-9716
+→ 모의토익, 호서토픽 : 041-540-9713
+→ 한국어학당 : 041-540-9714
+→ 유학생지도 : 041-540-9715
+→ 중국교류입학상담 : 041-540-9712
+→ 유학생민원(중국) : 041-540-9524
+→ 유학생민원(베트남) : 041-540-9526</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎국제협력원 번호 안내입니다
+→ 국제교류(영미권,베트남) : 041-540-9522
+→ 국제교류(중화권) : 041-540-9716
+→ 모의토익, 호서토픽 : 041-540-9713
+→ 한국어학당 : 041-540-9714
+→ 유학생지도 : 041-540-9715
+→ 중국교류입학상담 : 041-540-9712
+→ 유학생민원(중국) : 041-540-9524
+→ 유학생민원(베트남) : 041-540-9526</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎유학생상담센터 번호 안내입니다
 → (1) : 041-540-9824
 → (2) : 041-540-9831</t>
-  </si>
-  <si>
-    <t>자연사박물관 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎자연사박물관 번호 안내입니다
 → 관장 : 041-540-5288
 → 행정 : 041-540-5188</t>
-  </si>
-  <si>
-    <t>아산캠퍼스 생활관 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎자연사박물관 번호 안내입니다
+→ 관장 : 041-540-5288
+→ 행정 : 041-540-5188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎아산캠퍼스 생활관 번호 안내입니다
 → 시설/전산 : 041-540-5309
 → 일반업무 : 041-540-5311
 → 교육문화관 : 041-540-5312
@@ -1323,41 +2016,98 @@
 → 행정 : 041-540-9802
 → 시설 : 041-540-9801
 → 경비실 : 041-540-9805</t>
-  </si>
-  <si>
-    <t>출판부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎아산캠퍼스 생활관 번호 안내입니다
+→ 시설/전산 : 041-540-5309
+→ 일반업무 : 041-540-5311
+→ 교육문화관 : 041-540-5312
+→ 복지/민원 : 041-540-5313
+→ 영양상담 : 041-540-5314
+→ 교육문화관 : 041-540-5308
+→ 상황실 : 041-540-5322
+→ 영선실 : 041-540-5323
+→ 식당 : 041-540-5328
+→ 매점 : 041-540-5329
+[행복기숙사]
+→ 행정 : 041-540-9802
+→ 시설 : 041-540-9801
+→ 경비실 : 041-540-9805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎아산캠퍼스 생활관 번호 안내입니다
+→ 시설/전산 : 041-540-5309
+→ 일반업무 : 041-540-5311
+→ 교육문화관 : 041-540-5312
+→ 복지/민원 : 041-540-5313
+→ 영양상담 : 041-540-5314
+→ 교육문화관 : 041-540-5308
+→ 상황실 : 041-540-5322
+→ 영선실 : 041-540-5323
+→ 식당 : 041-540-5328
+→ 매점 : 041-540-5329
+[행복기숙사]
+→ 행정 : 041-540-9802
+→ 시설 : 041-540-9801
+→ 경비실 : 041-540-9805</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎출판부 번호 안내입니다
 → 출판부장 : 041-540-5291
 → 행정업무 : 041-540-5290</t>
-  </si>
-  <si>
-    <t>대학언론사 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학언론사 번호 안내입니다
 → 주간교수 : 041-540-5291
 → 행정업무 : 041-540-5290</t>
-  </si>
-  <si>
-    <t>교육연수원 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학언론사 번호 안내입니다
+→ 주간교수 : 041-540-5291
+→ 행정업무 : 041-540-5290</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교육연수원 번호 안내입니다
 → 원장 : 041-540-5275
 → 팀장 : 041-540-5276
 → 교육지원 : 041-540-5463</t>
-  </si>
-  <si>
-    <t>호서대학교 직장어린이집 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎호서대학교 직장어린이집 번호 안내입니다
 → 원장(총괄업무) : 041-540-9610
 → FAX : 041-540-9611</t>
-  </si>
-  <si>
-    <t>웰니스센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎웰니스센터 번호 안내입니다
 → 직원 : 041-540-5865</t>
-  </si>
-  <si>
-    <t>학생군사교육단 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎학생군사교육단 번호 안내입니다
 → 단장 : 041-540-5401
 → 군사학교수 : 041-540-5402
 → 선임훈육관 : 041-540-5403
 → 3훈육관 : 041-540-5404</t>
-  </si>
-  <si>
-    <t>부설연구소 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎학생군사교육단 번호 안내입니다
+→ 단장 : 041-540-5401
+→ 군사학교수 : 041-540-5402
+→ 선임훈육관 : 041-540-5403
+→ 3훈육관 : 041-540-5404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎부설연구소 번호 안내입니다
 → 기초과학연구소 : 041-540-5350
 → 공업기술연구소 : 041-540-5353
 → AI융합연구소 : 041-540-5993
@@ -1370,32 +2120,68 @@
 → 상호작용미디어연구소 : 041-540-5930
 → 벤처디자인연구센터 : 041-540-5398
 → 골프문화전략연구소 : 041-540-5474</t>
-  </si>
-  <si>
-    <t>생명윤리위원회 사무국 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎부설연구소 번호 안내입니다
+→ 기초과학연구소 : 041-540-5350
+→ 공업기술연구소 : 041-540-5353
+→ AI융합연구소 : 041-540-5993
+→ 해양IT융합기술연구소 : 041-540-5965
+→ 차세대에너지연구소 : 041-540-9646
+→ 식품기능안전연구센터 : 041-540-5351
+→ 화학기술개발연구소 : 041-540-5377
+→ 전기에너지신기술연구소 : 041-540-5387
+→ 뉴미디어연구소 : 041-540-5383
+→ 상호작용미디어연구소 : 041-540-5930
+→ 벤처디자인연구센터 : 041-540-5398
+→ 골프문화전략연구소 : 041-540-5474</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎생명윤리위원회 사무국 번호 안내입니다
 → 행정간사 : 041-540-9951
 → 일반행정 : 041-540-9952</t>
-  </si>
-  <si>
-    <t>동물실험 윤리위원회 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎동물실험 윤리위원회 번호 안내입니다
 → 행정간사 : 041-540-9823
 → 일반행정 : 041-540-9826</t>
-  </si>
-  <si>
-    <t>대학혁신지원사업단 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학혁신지원사업단 번호 안내입니다
 → 대학혁신지원사업관리 : 041-540-5326
 → 대학혁신지원사업관리 : 041-540-5327</t>
-  </si>
-  <si>
-    <t>AI·SW중심대학 사업단 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎대학혁신지원사업단 번호 안내입니다
+→ 대학혁신지원사업관리 : 041-540-5326
+→ 대학혁신지원사업관리 : 041-540-5327</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎AI·SW중심대학 사업단 번호 안내입니다
 → 회계/행정 : 041-540-9572
 → 기획/행정 : 041-540-9573
 → 기초&amp;융합&amp;가치확산센터 : 041-540-9571
 → 산학교육센터 : 041-540-5918/5919
 → 전공교육센터 : 041-540-5932/5933</t>
-  </si>
-  <si>
-    <t>LINC+ 사업단 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎AI·SW중심대학 사업단 번호 안내입니다
+→ 회계/행정 : 041-540-9572
+→ 기획/행정 : 041-540-9573
+→ 기초&amp;융합&amp;가치확산센터 : 041-540-9571
+→ 산학교육센터 : 041-540-5918/5919
+→ 전공교육센터 : 041-540-5932/5933</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎LINC+ 사업단 번호 안내입니다
 → 융합교육 : 041-540-5302
 → 사업예산 : 041-540-5303
 → 융합교육 : 041-540-5304
@@ -1406,15 +2192,17 @@
 → 지역연계 : 041-540-9505
 → 기업지원 : 041-540-9506
 → 현장실습 : 041-540-5068</t>
-  </si>
-  <si>
-    <t>공학혁신센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎공학혁신센터 번호 안내입니다
 → 행정/예산지출 : 041-540-9752
 → 공학인증/인재양성사업 : 041-540-9753~4
 → 공학인증/인재양성사업 : 041-540-9756~7</t>
-  </si>
-  <si>
-    <t>학생회 관련 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎학생회 관련 번호 안내입니다
 → 총학생회 : 041-540-5410
 → 총대의원회 : 041-540-5411
 → 생명보건대학학생회 : 041-540-5424
@@ -1422,40 +2210,48 @@
 → AI융합대학생회 : 041-540-5422
 → 예체능대학생회 : 041-540-5426
 → 동아리연합회 : 041-540-5416</t>
-  </si>
-  <si>
-    <t>각 건물 경비실 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎각 건물 경비실 번호 안내입니다
 → 본관(야간) : 041-540-5530
 → 상황실 : 041-540-5450
 → 학술정보관 : 041-540-5953</t>
-  </si>
-  <si>
-    <t>우체국 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎우체국 번호 안내입니다
 → 우편취급국(우체국) : 041-540-5509/5126</t>
-  </si>
-  <si>
-    <t>교수협의회 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교수협의회 번호 안내입니다
 → 교수협의회 : 041-540-5475</t>
-  </si>
-  <si>
-    <t>기업은행 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎기업은행 번호 안내입니다
 → 기업은행 : 041-540-5510</t>
-  </si>
-  <si>
-    <t>교직원식당 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교직원식당 번호 안내입니다
 → 교직원식당1층 : 041-540-5536
 → 교직원식당2층 : 041-540-5511</t>
-  </si>
-  <si>
-    <t>탁구실 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎탁구실 번호 안내입니다
 → 탁구실 : 041-540-5956</t>
-  </si>
-  <si>
-    <t>청소용역사무실 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎청소용역사무실 번호 안내입니다
 → 청소용역사무실 : 041-540-5514</t>
-  </si>
-  <si>
-    <t>복지매장 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎복지매장 번호 안내입니다
 → 안경점 : 041-548-9803
 → 서점 : 041-540-5521
 → 문구점 : 041-548-2204
@@ -1465,122 +2261,254 @@
 → 복사실(학술정보관) : 041-548-7999
 → 카페드림(강석교교육관) : 041-533-3304
 → Garden H(교직원회관카페) : 041-540-5537</t>
-  </si>
-  <si>
-    <t>항공서비스학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎복지매장 번호 안내입니다
+→ 안경점 : 041-548-9803
+→ 서점 : 041-540-5521
+→ 문구점 : 041-548-2204
+→ 생활용품 : 041-548-2966
+→ 사진관 : 041-548-9397
+→ 복사실 : 041-548-5058
+→ 복사실(학술정보관) : 041-548-7999
+→ 카페드림(강석교교육관) : 041-533-3304
+→ Garden H(교직원회관카페) : 041-540-5537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎복지매장 번호 안내입니다
+→ 안경점 : 041-548-9803
+→ 서점 : 041-540-5521
+→ 문구점 : 041-548-2204
+→ 생활용품 : 041-548-2966
+→ 사진관 : 041-548-9397
+→ 복사실 : 041-548-5058
+→ 복사실(학술정보관) : 041-548-7999
+→ 카페드림(강석교교육관) : 041-533-3304
+→ Garden H(교직원회관카페) : 041-540-5537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎복지매장 번호 안내입니다
+→ 안경점 : 041-548-9803
+→ 서점 : 041-540-5521
+→ 문구점 : 041-548-2204
+→ 생활용품 : 041-548-2966
+→ 사진관 : 041-548-9397
+→ 복사실 : 041-548-5058
+→ 복사실(학술정보관) : 041-548-7999
+→ 카페드림(강석교교육관) : 041-533-3304
+→ Garden H(교직원회관카페) : 041-540-5537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎복지매장 번호 안내입니다
+→ 안경점 : 041-548-9803
+→ 서점 : 041-540-5521
+→ 문구점 : 041-548-2204
+→ 생활용품 : 041-548-2966
+→ 사진관 : 041-548-9397
+→ 복사실 : 041-548-5058
+→ 복사실(학술정보관) : 041-548-7999
+→ 카페드림(강석교교육관) : 041-533-3304
+→ Garden H(교직원회관카페) : 041-540-5537</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎항공서비스학과 번호 안내입니다
 → 항공서비스학과 : 041-540-9900
 → FAX : 041-540-9901</t>
-  </si>
-  <si>
-    <t>건강기능식품학 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎건강기능식품학 번호 안내입니다
 → 건강기능식품학 : 041-540-5640
 → FAX : 041-540-9538</t>
-  </si>
-  <si>
-    <t>제약공학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎제약공학과 번호 안내입니다
 → 제약공학과 : 041-540-9810
 → FAX : 041-540-9538</t>
-  </si>
-  <si>
-    <t>화장품생며공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎화장품생명공학부 번호 안내입니다
 → 화장품과학트랙 : 041-540-9550
 → 생명공학트랙 : 041-540-5570
 → FAX : 041-540-9538</t>
-  </si>
-  <si>
-    <t>식품영양학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎식품영양학과 번호 안내입니다
 → 식품영양학과 : 041-540-5630
 → FAX : 041-540-5638</t>
-  </si>
-  <si>
-    <t>물리치료학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎물리치료학과 번호 안내입니다
 → 물리치료학과 : 041-540-9970
 → FAX : 041-540-9975</t>
-  </si>
-  <si>
-    <t>임상병리학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎임상병리학과 번호 안내입니다
 → 임상병리학과 : 041-540-9996
 → FAX : 041-540-9997</t>
-  </si>
-  <si>
-    <t>간호학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎간호학과 번호 안내입니다
 → 간호학과 : 041-540-9530
 → 실습 : 041-540-9529
 → FAX : 041-540-9558</t>
-  </si>
-  <si>
-    <t>수학전공 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎수학전공 번호 안내입니다
 → 수학전공 : 041-540-5600
 → FAX : 041-540-5608</t>
-  </si>
-  <si>
-    <t>전기공학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전기공학과 번호 안내입니다
 → 전기공학과 : 041-540-5650
 → FAX : 041-540-5658</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 시스템제어공학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎시스템제어공학과 번호 안내입니다
 → 시스템제어공학과 : 041-540-5670
 → 대학원실 : 041-540-5226
 → FAX : 041-540-5587</t>
-  </si>
-  <si>
-    <t>안전소방학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎안전소방학부 번호 안내입니다
 → 안전보건학트랙 : 041-540-5720
 → FAX : 041-540-5728
 → 소방방재학트랙 : 041-540-5730
 → FAX : 041-540-5738</t>
-  </si>
-  <si>
-    <t>화학공학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎안전소방학부 번호 안내입니다
+→ 안전보건학트랙 : 041-540-5720
+→ FAX : 041-540-5728
+→ 소방방재학트랙 : 041-540-5730
+→ FAX : 041-540-5738</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎안전소방학부 번호 안내입니다
+→ 안전보건학트랙 : 041-540-5720
+→ FAX : 041-540-5728
+→ 소방방재학트랙 : 041-540-5730
+→ FAX : 041-540-5738</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎화학공학과 번호 안내입니다
 → 화학공학과 : 041-540-5750
 → 대학원실 : 041-540-5231
 → FAX : 041-540-5758</t>
-  </si>
-  <si>
-    <t>건축토목공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎건축토목공학부 번호 안내입니다
 → 건축공학트랙 : 041-540-5770
 → 대학원실 : 041-540-5233
 → FAX : 041-540-5778
 → 토목공학트랙 : 041-540-5790
 → 대학원실 : 041-540-5796
 → FAX : 041-540-5798</t>
-  </si>
-  <si>
-    <t>환경공학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎건축토목공학부 번호 안내입니다
+→ 건축공학트랙 : 041-540-5770
+→ 대학원실 : 041-540-5233
+→ FAX : 041-540-5778
+→ 토목공학트랙 : 041-540-5790
+→ 대학원실 : 041-540-5796
+→ FAX : 041-540-5798</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎건축토목공학부 번호 안내입니다
+→ 건축공학트랙 : 041-540-5770
+→ 대학원실 : 041-540-5233
+→ FAX : 041-540-5778
+→ 토목공학트랙 : 041-540-5790
+→ 대학원실 : 041-540-5796
+→ FAX : 041-540-5798</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎환경공학과 번호 안내입니다
 → 환경공학과 : 041-540-5740
 → FAX : 041-540-5748</t>
-  </si>
-  <si>
-    <t>건축학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎건축학과 번호 안내입니다
 → 건축학과 : 041-540-5780
 → FAX : 041-540-5788</t>
-  </si>
-  <si>
-    <t>기계자동차공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎기계자동차공학부 번호 안내입니다
 → 기계공학트랙 : 041-540-5800
 → FAX : 041-540-5808
 → 자동차공학트랙 : 041-540-5810
 → FAX : 041-540-5818</t>
-  </si>
-  <si>
-    <t>전자재료공학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎기계자동차공학부 번호 안내입니다
+→ 기계공학트랙 : 041-540-5800
+→ FAX : 041-540-5808
+→ 자동차공학트랙 : 041-540-5810
+→ FAX : 041-540-5818</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎기계자동차공학부 번호 안내입니다
+→ 기계공학트랙 : 041-540-5800
+→ FAX : 041-540-5808
+→ 자동차공학트랙 : 041-540-5810
+→ FAX : 041-540-5818</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전자재료공학과 번호 안내입니다
 → 전자재료공학과 : 041-540-5760
 → FAX : 041-540-5768</t>
-  </si>
-  <si>
-    <t>정보통신공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎정보통신공학부 번호 안내입니다
 → 정보통신공학부 : 041-540-5680
 → FAX : 041-540-5693</t>
-  </si>
-  <si>
-    <t>빅데이터AI학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎빅데이터AI학과 번호 안내입니다
 → 빅데이터AI학과 : 041-540-5900/5910
 → 통계상담실 : 041-540-5909
 → FAX : 041-540-5908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">컴퓨터공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎빅데이터AI학과 번호 안내입니다 
+→ 빅데이터AI학과 : 041-540-5900/5910
+→ 통계상담실 : 041-540-5909
+→ FAX : 041-540-5908</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">☎컴퓨터공학부 번호 안내입니다
 → 사물인터넷트랙 : 041-540-5695
 → FAX : 041-548-9667
 → 정보보호학트랙 : 041-540-5698
@@ -1590,9 +2518,10 @@
 → 인공지능트랙 : 041-540-5584
 → FAX : 041-548-9667
 </t>
-  </si>
-  <si>
-    <t>컴퓨터공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎컴퓨터공학부 번호 안내입니다
 → 사물인터넷트랙 : 041-540-5695
 → FAX : 041-548-9667
 → 정보보호학트랙 : 041-540-5698
@@ -1601,540 +2530,135 @@
 → 대학원실2 : 041-540-5284
 → 인공지능트랙 : 041-540-5584
 → FAX : 041-548-9667</t>
-  </si>
-  <si>
-    <t>전자디스플레이공학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전자디스플레이공학부 번호 안내입니다
 → 전자공학트랙 : 041-540-5660
 → FAX : 041-540-5668
 → 디스플레이공학트랙 : 041-540-5610
 → FAX : 041-540-5618</t>
-  </si>
-  <si>
-    <t>게임소프트웨어학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎전자디스플레이공학부 번호 안내입니다
+→ 전자공학트랙 : 041-540-5660
+→ FAX : 041-540-5668
+→ 디스플레이공학트랙 : 041-540-5610
+→ FAX : 041-540-5618</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎게임소프트웨어학과 번호 안내입니다
 → 게임소프트웨어학과 : 041-540-5696
 → FAX : 041-540-5718</t>
-  </si>
-  <si>
-    <t>사회체육학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎사회체육학과 번호 안내입니다
 → 사회체육학과 : 041-540-5860
 → FAX : 041-540-5884</t>
-  </si>
-  <si>
-    <t>골프산업학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎골프산업학과 번호 안내입니다
 → 골프산업학과 : 041-540-5877
 → 스윙분석실 : 041-540-5474
 → FAX : 041-540-5882</t>
-  </si>
-  <si>
-    <t>시각디자인학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎시각디자인학과 번호 안내입니다
 → 시각디자인학과 : 041-540-5820
 → FAX : 041-540-5829</t>
-  </si>
-  <si>
-    <t>산업디자인학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎산업디자인학과 번호 안내입니다
 → 산업디자인학과 : 041-540-5850
 → 출력실 : 041-540-5219
 → FAX : 041-540-5856</t>
-  </si>
-  <si>
-    <t>실내디자인학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎실내디자인학과 번호 안내입니다
 → 실내디자인학과 : 041-540-5821
 → 대학원실 : 041-540-5239
 → V.R실험실 : 041-540-5827
 → FAX : 041-540-5822</t>
-  </si>
-  <si>
-    <t>애니메이션학과 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎애니메이션학과 번호 안내입니다
 → 애니메이션학과 : 041-540-5841
 → 대학원실 : 041-540-5846
 → FAX : 041-540-5845</t>
-  </si>
-  <si>
-    <t>문화영상학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎애니메이션학과 번호 안내입니다
+→ 애니메이션학과 : 041-540-5841
+→ 대학원실 : 041-540-5846
+→ FAX : 041-540-5845</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎문화영상학부 번호 안내입니다
 → 영상미디어트랙 : 041-540-5551
 → 문화콘텐츠기획트랙 : 041-540-5552/9600
 → FAX : 041-540-5565</t>
-  </si>
-  <si>
-    <t>공연예술학부 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎공연예술학부 번호 안내입니다
 → 연극트랙 : 041-540-5550
 → 대학원실 : 041-540-5540
 → FAX : 041-540-5857</t>
-  </si>
-  <si>
-    <t>환경바이오연구센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎공연예술학부 번호 안내입니다
+→ 연극트랙 : 041-540-5550
+→ 대학원실 : 041-540-5540
+→ FAX : 041-540-5857</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎환경바이오연구센터 번호 안내입니다
 → (1) : 041-540-5745
 → 행정 : 041-541-5745
 → FAX : 041-542-5745</t>
-  </si>
-  <si>
-    <t>융합기술연구소 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎융합기술연구소 번호 안내입니다
 → (1) : 041-540-9597</t>
-  </si>
-  <si>
-    <t>차세대에너지연구소 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎차세대에너지연구소 번호 안내입니다
 → (1) : 041-540-9636
 → (2) : 041-540-9638</t>
-  </si>
-  <si>
-    <t>입학사정관실 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎입학사정관실 번호 안내입니다
 → (1) : 041-540-9637</t>
-  </si>
-  <si>
-    <t>교수학습센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎교수학습센터 번호 안내입니다
 → (1) : 041-540-9710/9637</t>
-  </si>
-  <si>
-    <t>안전환경센터 번호 안내입니다 :)
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>☎안전환경센터 번호 안내입니다
 → (1) : 041-540-9807</t>
-  </si>
-  <si>
-    <t>01-대학교회 장소 안내입니다 :)
-1F : 기도실, 사무실
-2F : 채플실</t>
-  </si>
-  <si>
-    <t>02-대학본부 장소 안내입니다 :)
-B1 : 문서고
-1F : 구매팀(101호), 회계팀(102호), 사무팀(102호), 총무팀(102호), 종합행정팀(104호), 교무팀(106호), 학사팀(106호)
-2F : 총장실, 회의실, 비서팀(201호), 홍보팀(206호), 대학원교학팀(209호), 입학팀, 입학사정관실(211호)
-3F : 회의실, 대학혁신팀(301호) ,법무팀(303호), 기획팀(기획예산,전략기획)(301호)</t>
-  </si>
-  <si>
-    <t>03-학생회관 장소 안내입니다 :)
-1F : 동아리실
-2F : 동아리실, 소극장
-3F : 학생팀, 장학팀, 장애학생지원센터(305호), 동아리실, 학생회실
-4F : 동아리실, 대학언론사</t>
-  </si>
-  <si>
-    <t>04-학술지원동 장소 안내입니다 :)
-1F : 집기비품
-2F : 서고</t>
-  </si>
-  <si>
-    <t>05-가공학및발효실험동 장소 안내입니다 :)
-1F : 기자재실</t>
-  </si>
-  <si>
-    <t>06-소프트볼장 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>07-운동장 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>08-학군단 장소 안내입니다 :)
-1F : 생활관, 행정반, 체력단련장
-2F : 교관실, 단장실, 지휘근무실
-3F : 강의실, 생활지도실</t>
-  </si>
-  <si>
-    <t>09-자동차공학전공 실습장 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>10-테니스장 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>11-체육관 장소 안내입니다 :)
-1F : 실내체육장, 탁구장, 학과사무실
-2F : 학과사무실, 태권도장, 실습실
-3F : 교수연구실, 강의실, 합기도장</t>
-  </si>
-  <si>
-    <t>12-산업안전동 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>13-자연과학관 장소 안내입니다 :)
-B1 : 일반화학실험실, 일반물리실험실
-1F : 일반생물실험실, 매점, 강의실
-2F : 실험·실습실, 강의실, 교수연구실
-3F : 실험·실습실, 강의실, 교수연구실
-4F : 실험·실습실, 강의실, 교수연구실
-5F : 실험·실습실, 강의실, 교수연구실</t>
-  </si>
-  <si>
-    <t>14-학생창업보육센터 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>15-건축학부실험동 장소 안내입니다 :)
-1F : 재료실험실, 소형구조실험실
-2F : 건축설비실험실</t>
-  </si>
-  <si>
-    <t>16-골프전공실습장 장소 안내입니다 :)
-1F : 골프연습장, 강의실
-2F : 교수연구실, 학과사무실</t>
-  </si>
-  <si>
-    <t>17-교직원회관 장소 안내입니다 :)
-B : 골프문화전략연구소, 스윙분석실
-1F : 교직원식당, 사무실
-2F : 교직원식당
-3F : 카페</t>
-  </si>
-  <si>
-    <t>18-제2공학관 장소 안내입니다 :)
-B1 : 강의실, 실습실, 세미나실
-1F : 실험실, 교수연구실, 강당
-2F : 실습실, 학회실, 교수연구실
-3F : 교수연구실, 실험·실습실, 강의실
-4F : 교수연구실, 실험·실습실, 강의실
-5F : 교수연구실, 실험·실습실, 강의실</t>
-  </si>
-  <si>
-    <t>19-제1공학관 장소 안내입니다 :)
-B1 : 교수연구실, 실험·실습실
-1F : 교수연구실, 실험·실습실, 강의실
-2F : 교수연구실, 실험·실습실, 강의실, 공학교육혁신센터(247호)
-3F : 교수연구실, 실험·실습실, 강의실
-4F : 교수연구실, 실험·실습실, 강의실
-5F : 교수연구실, 실험·실습실, 강의실
-6F : 교수연구실, 실험·실습실, 강의실</t>
-  </si>
-  <si>
-    <t>20-보건과학관 장소 안내입니다 :)
-1F : 교수연구실, 실험·실습실, 교강사실
-2F : 실험·실습실, 강의실
-3F : 교수연구실, 실험·실습실
-4F : 실험·실습실, 강의실</t>
-  </si>
-  <si>
-    <t>21-조형과학관 장소 안내입니다 :)
-B1 : 실습실
-1F : 계단강의실, 실습실
-2F : 교수연구실, 학과사무실, 실습실
-3F : 교수연구실, 실습실
-4F : 교수연구실, 실습실
-5F : 실습실</t>
-  </si>
-  <si>
-    <t>22-강석규교육관 장소 안내입니다 :)
-B1 : 매점, 카페, 생활편의시설
-1F : 외래강사실, 상황실, (인재개발처, 취업팀, 대학일자리센터, 창업교육센터, 현장실습지원센터)(102호)
-2F : 박물관, 국제회의실, 강의실, 호서브랜드디자인센터(209호)
-3F : 교수연구실, 강의실
-4F : 교수연구실, 강의실, 호서브랜드미디어센터
-5F :  MOT대학원</t>
-  </si>
-  <si>
-    <t>23-예술관 장소 안내입니다 :)
-B1 : 강의실습실
-1F : 학과사무실, 실습실
-2F : 교수연구실, 실습실, 실기실
-3F : 교수연구실, 소극장, 강의실습실</t>
-  </si>
-  <si>
-    <t>24-산학협동1호관 장소 안내입니다 :)
-1F : 강의실, 실습실, 은행, 우체국
-2F : 실습실, 교수연구실
-3F : 교수연구실, 강의실
-4F : 교수연구실, 실습실, 실기실
-5F : 실습실
-Caritas봉사센터 : 별관 117호</t>
-  </si>
-  <si>
-    <t>25-산학협동2호관 장소 안내입니다 :)
-1F : 직장어린이집
-2F : 세미나실
-3F : 교수연구실</t>
-  </si>
-  <si>
-    <t>26-학생식당 장소 안내입니다 :)
-1F : 관리팀(검수실 포함), 시설팀
-2F : 학생식당(현재 푸드코트)
-3F : 행정사무실, 상담실, 스튜디오
-4F : 웰니스센터, LINC+사업단(401호)</t>
-  </si>
-  <si>
-    <t>27-안전성평가센터(GLP) 장소 안내입니다 :)
-1F : 실험·실습실
-2F : 실험·실습실, 사무실
-3F : 실험·실습실, 사무실</t>
-  </si>
-  <si>
-    <t>28-호서벤처벨리 장소 안내입니다 :)</t>
-  </si>
-  <si>
-    <t>29-후생관 장소 안내입니다 :)
-1F : 헬스장, 휴게실, 세탁실, 매점 (1층 현재 상황 정보 없음)
-2F : 식당
-3F : 세미나실, 전시실</t>
-  </si>
-  <si>
-    <t>30-생활관G동 장소 안내입니다 :)
-1F : 사생단실, 2인실
-2F : 2인실
-3F : 2인실
-4F : 2인실
-5F : 2인실</t>
-  </si>
-  <si>
-    <t>31-생활관F동 장소 안내입니다 :)
-1F : 사생단실, 2인실
-2F : 2인실
-3F : 2인실
-4F : 2인실
-5F : 2인실
-6F : 2인실</t>
-  </si>
-  <si>
-    <t>32-생활관E동 장소 안내입니다 :)
-1F : 사감실, 사생단실, 4인실
-2F : 4인실
-3F : 4인실
-4F : 4인실
-5F : 독서실</t>
-  </si>
-  <si>
-    <t>33-생활관D동 장소 안내입니다 :)
-1F : 사감실, 택배실, 4인실
-2F : 4인실
-3F : 4인실
-4F : 4인실
-5F : 독서실</t>
-  </si>
-  <si>
-    <t>34-생활관C동 장소 안내입니다 :)
-1F : 홀
-2F : 사감실, 방송실, 세탁실, 4인실
-3F : 4인실
-4F : 4인실
-5F : 6인실
-6F : 독서실</t>
-  </si>
-  <si>
-    <t>35-외국인교수 사택 장소 안내입니다 :)
-1F : 세탁실, 사택
-2F : 사택
-3F : 사택</t>
-  </si>
-  <si>
-    <t>36-생활관B동 장소 안내입니다 :)
-1F : 사감실, 방송실, 4인실
-2F : 4인실, 6인실
-3F : 4인실, 6인실
-4F : 4인실, 도서관</t>
-  </si>
-  <si>
-    <t>37-생활관A동 장소 안내입니다 :)
-1F : 사감실, 4인실
-2F : 4인실, 6인실
-3F : 4인실, 6인실
-4F : 4인실, 도서관</t>
-  </si>
-  <si>
-    <t>38-학생벤처창업관 장소 안내입니다 :)
-1F : 창업보육실
-2F : 동아리지원실, 학생창업보육실</t>
-  </si>
-  <si>
-    <t>39-벤처창업기업관 장소 안내입니다 :)
-1F : 창업보육실
-2F : 창업보육실, 회의실
-3F : 창업보육실</t>
-  </si>
-  <si>
-    <t>40-벤처창조융합관 장소 안내입니다 :)
-1F : 창업보육실
-2F : 창업보육실
-3F : 창업보육실, 회의실, 기자재실
-4F : 창업보육실, 창업준비실</t>
-  </si>
-  <si>
-    <t>41-벤처산학협력관 장소 안내입니다 :)
-B1 : 교육실, 실습실
-1F : 시제품제작지원실, 장비실
-2F : 국제회의실, 산학감사실(202-1호), 산학행정팀(204호), 산학사업팀(206호)
-3F : 기술이전센터, 강의실, 연구팀(301, 302호)
-4F : 연구소, 생명윤리위원회사무국(409호)
-5F : 가족기업
-6F : 가족기업
-7F : 창업지원단</t>
-  </si>
-  <si>
-    <t>42-교육문화관 장소 안내입니다 :)
-1F : 채플실, 무대
-2F : 채플실</t>
-  </si>
-  <si>
-    <t>43-학술정보관 장소 안내입니다 :)
-B1 : 카페, 베이커리(없어짐), 편의점
-1F : 소극장, 시네마룸, 미디어제작실
-2F : 24시간열람실, 통합서비스센터
-3F : 그룹스터디룸, 일반열람실
-4F : 캐럴, 메모리얼홀, 휴게실
-5F : 북카페, 학술정보개발실
-6F : 전시실, VIP접견실</t>
-  </si>
-  <si>
-    <t>44-행복기숙사 장소 안내입니다 :)
-홈페이지에 정보가 없어요 :(</t>
-  </si>
-  <si>
-    <t>애니메이션학과 장소 안내입니다 :)
-→ 애니메이션학과 사무실 : 조형과학관 212-1호</t>
-  </si>
-  <si>
-    <t>식품제약공학부 장소 안내입니다 :)
-→ 식품제약공학부 사무실 : 자연과학관 104-1호</t>
-  </si>
-  <si>
-    <t>화장품생명공학부 장소 안내입니다 :)
-→ 화장품생명공학부 사무실 : 자연과학관 104-1호</t>
-  </si>
-  <si>
-    <t>벤처대학원교학팀 위치 안내
-: 벤처대학원 202호 (서울시 서초구 남부순환로2497 호서대 벤처대학원)</t>
-  </si>
-  <si>
-    <t>:5000/images/1, 210.119.108.235:5000/images/in_대학교회</t>
-  </si>
-  <si>
-    <t>:5000/images/1</t>
-  </si>
-  <si>
-    <t>:5000/images/2, 210.119.108.235:5000/images/in_본관, 210.119.108.235:5000/images/in_본관2</t>
-  </si>
-  <si>
-    <t>:5000/images/2</t>
-  </si>
-  <si>
-    <t>:5000/images/3</t>
-  </si>
-  <si>
-    <t>:5000/images/4</t>
-  </si>
-  <si>
-    <t>:5000/images/5</t>
-  </si>
-  <si>
-    <t>:5000/images/6</t>
-  </si>
-  <si>
-    <t>:5000/images/7, 210.119.108.235:5000/images/in_운동장</t>
-  </si>
-  <si>
-    <t>:5000/images/8</t>
-  </si>
-  <si>
-    <t>:5000/images/9</t>
-  </si>
-  <si>
-    <t>:5000/images/10</t>
-  </si>
-  <si>
-    <t>:5000/images/11</t>
-  </si>
-  <si>
-    <t>:5000/images/12</t>
-  </si>
-  <si>
-    <t>:5000/images/13</t>
-  </si>
-  <si>
-    <t>:5000/images/14</t>
-  </si>
-  <si>
-    <t>:5000/images/15</t>
-  </si>
-  <si>
-    <t>:5000/images/16</t>
-  </si>
-  <si>
-    <t>:5000/images/17</t>
-  </si>
-  <si>
-    <t>:5000/images/18, 210.119.108.235:5000/images/in_제2공학관, 210.119.108.235:5000/images/in_제2공학관2</t>
-  </si>
-  <si>
-    <t>:5000/images/19, 210.119.108.235:5000/images/in_제1공학관, 210.119.108.235:5000/images/in_제1공학관2</t>
-  </si>
-  <si>
-    <t>:5000/images/19, 210.119.108.235:5000/images/in_공학교육혁신센터</t>
-  </si>
-  <si>
-    <t>:5000/images/20</t>
-  </si>
-  <si>
-    <t>:5000/images/21</t>
-  </si>
-  <si>
-    <t>:5000/images/22, 210.119.108.235:5000/images/in_강석규교육관</t>
-  </si>
-  <si>
-    <t>:5000/images/22</t>
-  </si>
-  <si>
-    <t>:5000/images/22, 210.119.108.235:5000/images/in_사진관</t>
-  </si>
-  <si>
-    <t>:5000/images/22, 210.119.108.235:5000/images/in_생활용품점</t>
-  </si>
-  <si>
-    <t>:5000/images/23</t>
-  </si>
-  <si>
-    <t>:5000/images/24</t>
-  </si>
-  <si>
-    <t>:5000/images/25</t>
-  </si>
-  <si>
-    <t>:5000/images/26</t>
-  </si>
-  <si>
-    <t>:5000/images/27</t>
-  </si>
-  <si>
-    <t>:5000/images/28</t>
-  </si>
-  <si>
-    <t>:5000/images/29</t>
-  </si>
-  <si>
-    <t>:5000/images/30</t>
-  </si>
-  <si>
-    <t>:5000/images/31</t>
-  </si>
-  <si>
-    <t>:5000/images/32</t>
-  </si>
-  <si>
-    <t>:5000/images/33</t>
-  </si>
-  <si>
-    <t>:5000/images/34</t>
-  </si>
-  <si>
-    <t>:5000/images/35</t>
-  </si>
-  <si>
-    <t>:5000/images/36</t>
-  </si>
-  <si>
-    <t>:5000/images/37</t>
-  </si>
-  <si>
-    <t>:5000/images/38</t>
-  </si>
-  <si>
-    <t>:5000/images/39</t>
-  </si>
-  <si>
-    <t>:5000/images/40</t>
-  </si>
-  <si>
-    <t>:5000/images/41</t>
-  </si>
-  <si>
-    <t>:5000/images/42</t>
-  </si>
-  <si>
-    <t>:5000/images/43, 210.119.108.235:5000/images/in_학술정보관, 210.119.108.235:5000/images/in_학술정보관2</t>
-  </si>
-  <si>
-    <t>:5000/images/44</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2514,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="G342" sqref="G342"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2527,7 +3051,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +3073,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>439</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -2560,7 +3087,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>440</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -2571,7 +3101,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>341</v>
+        <v>439</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -2582,7 +3115,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>439</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -2593,7 +3129,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>342</v>
+        <v>441</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -2604,7 +3143,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>342</v>
+        <v>441</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="264" x14ac:dyDescent="0.3">
@@ -2615,7 +3157,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>343</v>
+        <v>442</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="264" x14ac:dyDescent="0.3">
@@ -2626,7 +3171,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>343</v>
+        <v>442</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="264" x14ac:dyDescent="0.3">
@@ -2637,7 +3185,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>343</v>
+        <v>442</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="264" x14ac:dyDescent="0.3">
@@ -2648,7 +3199,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>442</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="297" x14ac:dyDescent="0.3">
@@ -2659,7 +3213,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>344</v>
+        <v>443</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="297" x14ac:dyDescent="0.3">
@@ -2670,7 +3227,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>344</v>
+        <v>444</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="297" x14ac:dyDescent="0.3">
@@ -2681,7 +3241,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>344</v>
+        <v>445</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -2692,7 +3255,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>345</v>
+        <v>446</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -2703,10 +3269,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2714,10 +3283,13 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2725,10 +3297,13 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -2736,10 +3311,13 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -2747,10 +3325,13 @@
         <v>24</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2758,10 +3339,13 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2769,10 +3353,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
@@ -2780,10 +3367,13 @@
         <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -2791,10 +3381,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2802,10 +3395,13 @@
         <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2813,10 +3409,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -2824,10 +3423,13 @@
         <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -2835,10 +3437,13 @@
         <v>32</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2846,10 +3451,13 @@
         <v>33</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -2857,10 +3465,13 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2868,10 +3479,13 @@
         <v>35</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2879,10 +3493,13 @@
         <v>36</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="264" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2890,10 +3507,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="264" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -2901,10 +3521,13 @@
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="264" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="264" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
@@ -2912,10 +3535,13 @@
         <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -2923,10 +3549,13 @@
         <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
@@ -2934,10 +3563,13 @@
         <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -2945,10 +3577,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
@@ -2956,10 +3591,13 @@
         <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -2967,10 +3605,13 @@
         <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
@@ -2978,10 +3619,13 @@
         <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -2989,10 +3633,13 @@
         <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
@@ -3000,10 +3647,13 @@
         <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -3011,10 +3661,13 @@
         <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -3022,10 +3675,13 @@
         <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -3033,10 +3689,13 @@
         <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="409.5" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>4</v>
       </c>
@@ -3044,10 +3703,13 @@
         <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -3055,10 +3717,13 @@
         <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -3066,10 +3731,13 @@
         <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -3077,10 +3745,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
@@ -3088,10 +3759,13 @@
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -3099,10 +3773,13 @@
         <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>4</v>
       </c>
@@ -3110,10 +3787,13 @@
         <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -3121,10 +3801,13 @@
         <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>4</v>
       </c>
@@ -3132,10 +3815,13 @@
         <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>4</v>
       </c>
@@ -3143,10 +3829,13 @@
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
@@ -3154,10 +3843,13 @@
         <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
@@ -3165,10 +3857,13 @@
         <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>4</v>
       </c>
@@ -3176,10 +3871,13 @@
         <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
@@ -3187,10 +3885,13 @@
         <v>64</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>4</v>
       </c>
@@ -3198,10 +3899,13 @@
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
@@ -3209,10 +3913,13 @@
         <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -3220,10 +3927,13 @@
         <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="247.5" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>4</v>
       </c>
@@ -3231,10 +3941,13 @@
         <v>68</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="247.5" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
@@ -3242,10 +3955,13 @@
         <v>69</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="247.5" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>4</v>
       </c>
@@ -3253,10 +3969,13 @@
         <v>70</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="247.5" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
@@ -3264,10 +3983,13 @@
         <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="247.5" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
@@ -3275,10 +3997,13 @@
         <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>4</v>
       </c>
@@ -3286,10 +4011,13 @@
         <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
@@ -3297,10 +4025,13 @@
         <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>4</v>
       </c>
@@ -3308,10 +4039,13 @@
         <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>4</v>
       </c>
@@ -3319,10 +4053,13 @@
         <v>76</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>4</v>
       </c>
@@ -3330,10 +4067,13 @@
         <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
@@ -3341,10 +4081,13 @@
         <v>78</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
@@ -3352,10 +4095,13 @@
         <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
@@ -3363,10 +4109,13 @@
         <v>80</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>4</v>
       </c>
@@ -3374,10 +4123,13 @@
         <v>81</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="231" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>4</v>
       </c>
@@ -3385,10 +4137,13 @@
         <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="231" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="231" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
@@ -3396,10 +4151,13 @@
         <v>83</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>4</v>
       </c>
@@ -3407,10 +4165,13 @@
         <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>4</v>
       </c>
@@ -3418,10 +4179,13 @@
         <v>85</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>4</v>
       </c>
@@ -3429,10 +4193,13 @@
         <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>4</v>
       </c>
@@ -3440,10 +4207,13 @@
         <v>87</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>4</v>
       </c>
@@ -3451,10 +4221,13 @@
         <v>88</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -3462,10 +4235,13 @@
         <v>89</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>4</v>
       </c>
@@ -3473,10 +4249,13 @@
         <v>90</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -3484,10 +4263,13 @@
         <v>91</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
@@ -3495,10 +4277,13 @@
         <v>92</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>4</v>
       </c>
@@ -3506,10 +4291,13 @@
         <v>93</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="99" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>4</v>
       </c>
@@ -3517,10 +4305,13 @@
         <v>94</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="132" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -3528,10 +4319,13 @@
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
@@ -3539,10 +4333,13 @@
         <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>4</v>
       </c>
@@ -3550,10 +4347,13 @@
         <v>97</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>4</v>
       </c>
@@ -3561,10 +4361,13 @@
         <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>4</v>
       </c>
@@ -3572,10 +4375,13 @@
         <v>99</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -3583,10 +4389,13 @@
         <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
@@ -3594,10 +4403,13 @@
         <v>101</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>4</v>
       </c>
@@ -3605,10 +4417,13 @@
         <v>102</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
@@ -3616,10 +4431,13 @@
         <v>103</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>4</v>
       </c>
@@ -3627,10 +4445,13 @@
         <v>104</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -3638,10 +4459,13 @@
         <v>105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>4</v>
       </c>
@@ -3649,10 +4473,13 @@
         <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>4</v>
       </c>
@@ -3660,10 +4487,13 @@
         <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>4</v>
       </c>
@@ -3671,10 +4501,13 @@
         <v>108</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>4</v>
       </c>
@@ -3682,10 +4515,13 @@
         <v>109</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>4</v>
       </c>
@@ -3693,10 +4529,13 @@
         <v>110</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
@@ -3704,10 +4543,13 @@
         <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>4</v>
       </c>
@@ -3715,10 +4557,13 @@
         <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>4</v>
       </c>
@@ -3726,10 +4571,13 @@
         <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="181.5" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>4</v>
       </c>
@@ -3737,10 +4585,13 @@
         <v>114</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>4</v>
       </c>
@@ -3748,10 +4599,13 @@
         <v>115</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>4</v>
       </c>
@@ -3759,10 +4613,13 @@
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>4</v>
       </c>
@@ -3770,10 +4627,13 @@
         <v>117</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>4</v>
       </c>
@@ -3781,10 +4641,13 @@
         <v>118</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>4</v>
       </c>
@@ -3792,10 +4655,13 @@
         <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>4</v>
       </c>
@@ -3803,10 +4669,13 @@
         <v>120</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>4</v>
       </c>
@@ -3814,10 +4683,13 @@
         <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -3825,10 +4697,13 @@
         <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>4</v>
       </c>
@@ -3836,10 +4711,13 @@
         <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3847,10 +4725,13 @@
         <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>4</v>
       </c>
@@ -3858,10 +4739,13 @@
         <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>4</v>
       </c>
@@ -3869,10 +4753,13 @@
         <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
@@ -3880,10 +4767,13 @@
         <v>127</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>4</v>
       </c>
@@ -3891,10 +4781,13 @@
         <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>4</v>
       </c>
@@ -3902,10 +4795,13 @@
         <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
@@ -3913,10 +4809,13 @@
         <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>4</v>
       </c>
@@ -3924,10 +4823,13 @@
         <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>4</v>
       </c>
@@ -3935,10 +4837,13 @@
         <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>4</v>
       </c>
@@ -3946,10 +4851,13 @@
         <v>133</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>4</v>
       </c>
@@ -3957,10 +4865,13 @@
         <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>4</v>
       </c>
@@ -3968,10 +4879,13 @@
         <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="115.5" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>4</v>
       </c>
@@ -3979,10 +4893,13 @@
         <v>136</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>4</v>
       </c>
@@ -3990,10 +4907,13 @@
         <v>137</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>4</v>
       </c>
@@ -4001,10 +4921,13 @@
         <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>4</v>
       </c>
@@ -4012,10 +4935,13 @@
         <v>139</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>4</v>
       </c>
@@ -4023,10 +4949,13 @@
         <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>540</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>4</v>
       </c>
@@ -4034,10 +4963,13 @@
         <v>141</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>4</v>
       </c>
@@ -4045,10 +4977,13 @@
         <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>4</v>
       </c>
@@ -4056,10 +4991,13 @@
         <v>143</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
@@ -4067,10 +5005,13 @@
         <v>144</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>4</v>
       </c>
@@ -4078,10 +5019,13 @@
         <v>145</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="165" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>4</v>
       </c>
@@ -4089,10 +5033,13 @@
         <v>146</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>4</v>
       </c>
@@ -4100,10 +5047,13 @@
         <v>147</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>4</v>
       </c>
@@ -4111,10 +5061,13 @@
         <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>4</v>
       </c>
@@ -4122,10 +5075,13 @@
         <v>149</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>4</v>
       </c>
@@ -4133,10 +5089,13 @@
         <v>150</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>4</v>
       </c>
@@ -4144,10 +5103,13 @@
         <v>151</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>4</v>
       </c>
@@ -4155,10 +5117,13 @@
         <v>152</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>4</v>
       </c>
@@ -4166,10 +5131,13 @@
         <v>153</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>4</v>
       </c>
@@ -4177,10 +5145,13 @@
         <v>154</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>4</v>
       </c>
@@ -4188,10 +5159,13 @@
         <v>155</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>4</v>
       </c>
@@ -4199,10 +5173,13 @@
         <v>156</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>4</v>
       </c>
@@ -4210,10 +5187,13 @@
         <v>157</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>4</v>
       </c>
@@ -4221,10 +5201,13 @@
         <v>158</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>4</v>
       </c>
@@ -4232,10 +5215,13 @@
         <v>159</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>4</v>
       </c>
@@ -4243,10 +5229,13 @@
         <v>160</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>4</v>
       </c>
@@ -4254,10 +5243,13 @@
         <v>161</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>4</v>
       </c>
@@ -4265,10 +5257,13 @@
         <v>162</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>4</v>
       </c>
@@ -4276,10 +5271,13 @@
         <v>163</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+        <v>558</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>4</v>
       </c>
@@ -4287,7 +5285,10 @@
         <v>164</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>424</v>
+        <v>558</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -4298,7 +5299,10 @@
         <v>165</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>425</v>
+        <v>559</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -4309,7 +5313,10 @@
         <v>166</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>425</v>
+        <v>560</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -4320,7 +5327,10 @@
         <v>167</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>426</v>
+        <v>561</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4331,7 +5341,10 @@
         <v>168</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>427</v>
+        <v>562</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4342,7 +5355,10 @@
         <v>169</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>428</v>
+        <v>563</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4353,7 +5369,10 @@
         <v>170</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>429</v>
+        <v>564</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4364,7 +5383,10 @@
         <v>34</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>430</v>
+        <v>565</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4375,10 +5397,13 @@
         <v>171</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>5</v>
       </c>
@@ -4386,10 +5411,10 @@
         <v>172</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>480</v>
+        <v>389</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4400,13 +5425,13 @@
         <v>173</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>5</v>
       </c>
@@ -4414,10 +5439,10 @@
         <v>174</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>480</v>
+        <v>389</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4428,13 +5453,13 @@
         <v>175</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>432</v>
+        <v>341</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>5</v>
       </c>
@@ -4442,13 +5467,13 @@
         <v>176</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="165" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>5</v>
       </c>
@@ -4456,10 +5481,10 @@
         <v>177</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>482</v>
+        <v>391</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4470,10 +5495,10 @@
         <v>178</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4484,10 +5509,10 @@
         <v>179</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4498,10 +5523,10 @@
         <v>180</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4512,10 +5537,10 @@
         <v>181</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4526,10 +5551,10 @@
         <v>182</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4540,10 +5565,10 @@
         <v>183</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4554,10 +5579,10 @@
         <v>184</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4568,10 +5593,10 @@
         <v>185</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4582,10 +5607,10 @@
         <v>186</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4596,10 +5621,10 @@
         <v>187</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4610,10 +5635,10 @@
         <v>188</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4624,10 +5649,10 @@
         <v>189</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4638,10 +5663,10 @@
         <v>190</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4652,10 +5677,10 @@
         <v>191</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4666,10 +5691,10 @@
         <v>192</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4680,10 +5705,10 @@
         <v>193</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4694,10 +5719,10 @@
         <v>194</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4708,10 +5733,10 @@
         <v>195</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4722,10 +5747,10 @@
         <v>196</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4736,10 +5761,10 @@
         <v>197</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="165" x14ac:dyDescent="0.3">
@@ -4750,10 +5775,10 @@
         <v>198</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>433</v>
+        <v>342</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>483</v>
+        <v>392</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4764,10 +5789,10 @@
         <v>199</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4778,10 +5803,10 @@
         <v>200</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4792,10 +5817,10 @@
         <v>201</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4806,10 +5831,10 @@
         <v>202</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4820,10 +5845,10 @@
         <v>203</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4834,10 +5859,10 @@
         <v>204</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -4848,10 +5873,10 @@
         <v>205</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4862,10 +5887,10 @@
         <v>206</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>435</v>
+        <v>344</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>485</v>
+        <v>394</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4876,10 +5901,10 @@
         <v>207</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4890,10 +5915,10 @@
         <v>208</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4904,13 +5929,13 @@
         <v>209</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>5</v>
       </c>
@@ -4918,13 +5943,13 @@
         <v>210</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>5</v>
       </c>
@@ -4932,10 +5957,10 @@
         <v>211</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>438</v>
+        <v>347</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>488</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -4946,10 +5971,10 @@
         <v>212</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>439</v>
+        <v>348</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>489</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4960,10 +5985,10 @@
         <v>213</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>490</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -4974,13 +5999,13 @@
         <v>214</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>5</v>
       </c>
@@ -4988,10 +6013,10 @@
         <v>215</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>441</v>
+        <v>350</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>491</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5002,10 +6027,10 @@
         <v>216</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>492</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5016,10 +6041,10 @@
         <v>217</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>492</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5030,10 +6055,10 @@
         <v>218</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>492</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5044,10 +6069,10 @@
         <v>219</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>492</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5058,13 +6083,13 @@
         <v>220</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>5</v>
       </c>
@@ -5072,10 +6097,10 @@
         <v>221</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5086,10 +6111,10 @@
         <v>222</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5100,10 +6125,10 @@
         <v>223</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5114,10 +6139,10 @@
         <v>224</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5128,10 +6153,10 @@
         <v>225</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5142,10 +6167,10 @@
         <v>226</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5156,10 +6181,10 @@
         <v>227</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5170,13 +6195,13 @@
         <v>228</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>444</v>
+        <v>353</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>5</v>
       </c>
@@ -5184,13 +6209,13 @@
         <v>229</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>5</v>
       </c>
@@ -5198,10 +6223,10 @@
         <v>230</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>495</v>
+        <v>404</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5212,10 +6237,10 @@
         <v>231</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5226,10 +6251,10 @@
         <v>232</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5240,10 +6265,10 @@
         <v>233</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5254,10 +6279,10 @@
         <v>234</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5268,10 +6293,10 @@
         <v>235</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5282,10 +6307,10 @@
         <v>236</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5296,10 +6321,10 @@
         <v>237</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -5310,10 +6335,10 @@
         <v>238</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>447</v>
+        <v>356</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>497</v>
+        <v>406</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5324,10 +6349,10 @@
         <v>239</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5338,10 +6363,10 @@
         <v>240</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5352,10 +6377,10 @@
         <v>241</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5366,10 +6391,10 @@
         <v>242</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>498</v>
+        <v>407</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5380,13 +6405,13 @@
         <v>243</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>448</v>
+        <v>357</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
@@ -5394,13 +6419,13 @@
         <v>244</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>5</v>
       </c>
@@ -5408,13 +6433,13 @@
         <v>245</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>5</v>
       </c>
@@ -5422,13 +6447,13 @@
         <v>246</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>449</v>
+        <v>358</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>5</v>
       </c>
@@ -5436,13 +6461,13 @@
         <v>247</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>5</v>
       </c>
@@ -5450,13 +6475,13 @@
         <v>248</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>5</v>
       </c>
@@ -5464,10 +6489,10 @@
         <v>249</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>500</v>
+        <v>409</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -5478,10 +6503,10 @@
         <v>250</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="148.5" x14ac:dyDescent="0.3">
@@ -5492,10 +6517,10 @@
         <v>251</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>501</v>
+        <v>410</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5506,10 +6531,10 @@
         <v>252</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>451</v>
+        <v>360</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>502</v>
+        <v>411</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5520,10 +6545,10 @@
         <v>253</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>503</v>
+        <v>412</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5534,10 +6559,10 @@
         <v>254</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>503</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5548,10 +6573,10 @@
         <v>255</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5562,10 +6587,10 @@
         <v>256</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5576,10 +6601,10 @@
         <v>257</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5590,10 +6615,10 @@
         <v>258</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5604,10 +6629,10 @@
         <v>259</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5618,10 +6643,10 @@
         <v>260</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5632,10 +6657,10 @@
         <v>261</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5646,10 +6671,10 @@
         <v>262</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5660,10 +6685,10 @@
         <v>263</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5674,10 +6699,10 @@
         <v>264</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5688,10 +6713,10 @@
         <v>265</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5702,10 +6727,10 @@
         <v>266</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5716,10 +6741,10 @@
         <v>267</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -5730,10 +6755,10 @@
         <v>268</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5744,10 +6769,10 @@
         <v>269</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>508</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5758,10 +6783,10 @@
         <v>270</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5772,10 +6797,10 @@
         <v>271</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5786,10 +6811,10 @@
         <v>272</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -5800,10 +6825,10 @@
         <v>273</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>509</v>
+        <v>418</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5814,10 +6839,10 @@
         <v>274</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5828,10 +6853,10 @@
         <v>275</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -5842,10 +6867,10 @@
         <v>276</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>456</v>
+        <v>365</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5856,10 +6881,10 @@
         <v>277</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5870,10 +6895,10 @@
         <v>278</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5884,10 +6909,10 @@
         <v>279</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5898,10 +6923,10 @@
         <v>280</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5912,10 +6937,10 @@
         <v>281</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5926,10 +6951,10 @@
         <v>282</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5940,10 +6965,10 @@
         <v>283</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5954,10 +6979,10 @@
         <v>284</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5968,10 +6993,10 @@
         <v>285</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5982,10 +7007,10 @@
         <v>286</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>511</v>
+        <v>420</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -5996,13 +7021,13 @@
         <v>287</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>458</v>
+        <v>367</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>5</v>
       </c>
@@ -6010,10 +7035,10 @@
         <v>288</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>459</v>
+        <v>368</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>513</v>
+        <v>422</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6024,10 +7049,10 @@
         <v>289</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>460</v>
+        <v>369</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>514</v>
+        <v>423</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6038,10 +7063,10 @@
         <v>290</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6052,10 +7077,10 @@
         <v>291</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6066,10 +7091,10 @@
         <v>292</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6080,10 +7105,10 @@
         <v>293</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6094,10 +7119,10 @@
         <v>294</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6108,10 +7133,10 @@
         <v>295</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6122,10 +7147,10 @@
         <v>296</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6136,10 +7161,10 @@
         <v>297</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>516</v>
+        <v>425</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6150,10 +7175,10 @@
         <v>298</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6164,10 +7189,10 @@
         <v>299</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6178,10 +7203,10 @@
         <v>300</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6192,10 +7217,10 @@
         <v>301</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>463</v>
+        <v>372</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6206,10 +7231,10 @@
         <v>302</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6220,10 +7245,10 @@
         <v>303</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6234,10 +7259,10 @@
         <v>304</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="99" x14ac:dyDescent="0.3">
@@ -6248,10 +7273,10 @@
         <v>305</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>464</v>
+        <v>373</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>518</v>
+        <v>427</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6262,10 +7287,10 @@
         <v>306</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6276,10 +7301,10 @@
         <v>307</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6290,10 +7315,10 @@
         <v>308</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="115.5" x14ac:dyDescent="0.3">
@@ -6304,10 +7329,10 @@
         <v>309</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -6318,10 +7343,10 @@
         <v>310</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6332,10 +7357,10 @@
         <v>311</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6346,10 +7371,10 @@
         <v>312</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6360,10 +7385,10 @@
         <v>313</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6374,10 +7399,10 @@
         <v>314</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>467</v>
+        <v>376</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>521</v>
+        <v>430</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6388,10 +7413,10 @@
         <v>315</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6402,10 +7427,10 @@
         <v>316</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6416,10 +7441,10 @@
         <v>317</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6430,10 +7455,10 @@
         <v>318</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>468</v>
+        <v>377</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>522</v>
+        <v>431</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6444,10 +7469,10 @@
         <v>319</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>469</v>
+        <v>378</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>523</v>
+        <v>432</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="66" x14ac:dyDescent="0.3">
@@ -6458,10 +7483,10 @@
         <v>320</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>524</v>
+        <v>433</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
@@ -6472,10 +7497,10 @@
         <v>321</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>525</v>
+        <v>434</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -6486,10 +7511,10 @@
         <v>322</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -6500,10 +7525,10 @@
         <v>323</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -6514,10 +7539,10 @@
         <v>324</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -6528,10 +7553,10 @@
         <v>325</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -6542,10 +7567,10 @@
         <v>326</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="181.5" x14ac:dyDescent="0.3">
@@ -6556,10 +7581,10 @@
         <v>327</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>472</v>
+        <v>381</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>526</v>
+        <v>435</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6570,13 +7595,13 @@
         <v>328</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>473</v>
+        <v>382</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>5</v>
       </c>
@@ -6584,13 +7609,13 @@
         <v>329</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>5</v>
       </c>
@@ -6598,13 +7623,13 @@
         <v>330</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>5</v>
       </c>
@@ -6612,13 +7637,13 @@
         <v>331</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>5</v>
       </c>
@@ -6626,13 +7651,13 @@
         <v>332</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="198" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="132" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>5</v>
       </c>
@@ -6640,10 +7665,10 @@
         <v>333</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>528</v>
+        <v>437</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6654,10 +7679,10 @@
         <v>334</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -6668,10 +7693,10 @@
         <v>335</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>475</v>
+        <v>384</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>529</v>
+        <v>438</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6682,10 +7707,10 @@
         <v>336</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>503</v>
+        <v>412</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6696,10 +7721,10 @@
         <v>337</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>476</v>
+        <v>385</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>503</v>
+        <v>412</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6710,10 +7735,10 @@
         <v>338</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>477</v>
+        <v>386</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -6724,10 +7749,13 @@
         <v>339</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>5</v>
       </c>
@@ -6735,7 +7763,10 @@
         <v>340</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>479</v>
+        <v>388</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
